--- a/Notebooks/cleaned_merged_data.xlsx
+++ b/Notebooks/cleaned_merged_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Company/Brand</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>HeadQuarter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Sector</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Funding Amount</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>What it does</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Stage</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
@@ -453,105 +473,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="C2" t="n">
+          <t>TheCollegeFever</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Media &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TheCollegeFever is a hub for fun, fiesta and f...</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$200,000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2019</v>
+          <t>Happy Cow Dairy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Agriculture &amp; Environment</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A startup which aggregates milk from dairy far...</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$100,000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2020</v>
+          <t>MyLoanCare</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gurugram</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Technology sector</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Leading Online Loans Marketplace in India</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$3,000,000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Early Traction</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2021</v>
+          <t>PayMe India</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Finance sector</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PayMe India is an innovative FinTech organizat...</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$400,000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E-commerce</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="C6" t="n">
+          <t>Eunimart</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retail &amp; E-commerce</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Eunimart is a one stop solution for merchants ...</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$340,000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2018</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2021</v>
       </c>
     </row>
   </sheetData>
